--- a/TestCase/TestPlan_V1.0.xlsx
+++ b/TestCase/TestPlan_V1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rockycheng/GitHub/SampleCodeOnTwitch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rockycheng/GitHub/SampleCodeOnTwitch/TestCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FCFD07-2DF2-3B49-A69C-685E1FE0F94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F766B8-EB95-7A47-9C19-CCEDEB5B3D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0B19CA0A-A98B-0D46-9ACD-72D8625D8B8D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0B19CA0A-A98B-0D46-9ACD-72D8625D8B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Twitch" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>SEARCH_TEXT = "Monster Hunter World The_Elegist"</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>The video CAN play Steam</t>
+  </si>
+  <si>
+    <t>SEARCH_TEXT = "Monster Hunter World"</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="114" x14ac:dyDescent="0.2">
@@ -515,22 +515,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
